--- a/log_history/Y2_B2526_selected_2025-10-29T14-48-15.xlsx
+++ b/log_history/Y2_B2526_selected_2025-10-29T14-48-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\log_history\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEA9589-1B38-4824-8B84-B19F0B69A123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAF30C3-AD92-41AF-9FD6-120505382D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
